--- a/src/test/resources/student.xlsx
+++ b/src/test/resources/student.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="984" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="学生" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
   <si>
     <t xml:space="preserve">姓名</t>
   </si>
@@ -42,10 +42,19 @@
     <t xml:space="preserve">总分</t>
   </si>
   <si>
+    <t xml:space="preserve">性别</t>
+  </si>
+  <si>
     <t xml:space="preserve">张三</t>
   </si>
   <si>
+    <t xml:space="preserve">男</t>
+  </si>
+  <si>
     <t xml:space="preserve">李四</t>
+  </si>
+  <si>
+    <t xml:space="preserve">女</t>
   </si>
   <si>
     <t xml:space="preserve">王五</t>
@@ -203,17 +212,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E10" activeCellId="0" sqref="E10"/>
+      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1:G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="10.7912621359223"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.2669902912621"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="10.7912621359223"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="11.5582524271845"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.6796116504854"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="11.5582524271845"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -235,10 +244,13 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" s="1" t="n">
         <v>18</v>
@@ -256,10 +268,13 @@
         <f aca="false">SUM(D2:E2)</f>
         <v>199</v>
       </c>
+      <c r="G2" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B3" s="1" t="n">
         <v>17</v>
@@ -277,10 +292,13 @@
         <f aca="false">SUM(D3:E3)</f>
         <v>107.79</v>
       </c>
+      <c r="G3" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B4" s="1" t="n">
         <v>20</v>
@@ -298,10 +316,13 @@
         <f aca="false">SUM(D4:E4)</f>
         <v>66.8</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G4" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B5" s="1" t="n">
         <v>30</v>
@@ -318,6 +339,9 @@
       <c r="F5" s="1" t="n">
         <f aca="false">SUM(D5:E5)</f>
         <v>155</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -327,10 +351,11 @@
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
-    </row>
-    <row r="7" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" customFormat="false" ht="15.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B7" s="1" t="n">
         <v>31</v>
@@ -347,6 +372,9 @@
       <c r="F7" s="1" t="n">
         <f aca="false">SUM(D7:E7)</f>
         <v>141.1</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -368,12 +396,12 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="G1:G7 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="10.7912621359223"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5582524271845"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -396,12 +424,12 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="G1:G7 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="10.7912621359223"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5582524271845"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
